--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://msa2-my.sharepoint.com/personal/27503_edu_msa_nl/Documents/act/Leerjaar 1/Bits Of You/BitsOfYou.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{BC7E0CC3-0834-4AFD-9575-840895AEC9E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91131BB8-1979-4981-9D4F-E9A88A9EF84F}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{BC7E0CC3-0834-4AFD-9575-840895AEC9E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF243CC0-8444-4924-A907-2516E8631C60}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -356,7 +356,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -470,7 +470,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
